--- a/InputData/plcy-schd/IT/Initial Time.xlsx
+++ b/InputData/plcy-schd/IT/Initial Time.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\OneDrive - World Resources Institute\EPS\MODEL\eps-1.4.3-HK-071819\InputData\plcy-schd\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\plcy-schd\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_92B5C37C2D3624AD8B5020B7585CF008E6E0279A" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4405B6DD-A510-4C59-A3DA-7C48014AE80F}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2985" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27960" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,23 +226,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,23 +261,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,21 +436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,52 +458,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -546,12 +511,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -559,12 +524,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -576,29 +541,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -841,6 +806,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -849,41 +823,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A32CC7F-E4EF-4D08-BB61-6CA41B6F6816}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9C8C511-C902-4B63-80BA-F5F898F8D68E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02415C1B-1DE9-45FD-87C7-4E79CF97B0E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835DE39B-125C-4F32-A658-43A72594F09F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D40E9F30-892C-4045-AED9-83907C1C6239}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{219354A7-FE13-442E-B4A4-3B3FDCCD4E98}"/>
 </file>